--- a/data/trans_camb/P1402-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1402-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>2.232198066246726</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3.920992346014356</v>
+        <v>3.920992346014354</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.577217435207421</v>
@@ -655,7 +655,7 @@
         <v>2.71027507952854</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>1.352699370709836</v>
+        <v>1.352699370709835</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.1313085935392221</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.074445822508757</v>
+        <v>-4.013584588578372</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.076750698353319</v>
+        <v>-0.9690794724755317</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.066607335826808</v>
+        <v>0.8805080086585553</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.7823291906357071</v>
+        <v>-0.9443980675489893</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09780038681977445</v>
+        <v>0.09671039382915378</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.9017465692024208</v>
+        <v>-0.7083312473638391</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.074335704859588</v>
+        <v>-2.175813509564675</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02003117715461512</v>
+        <v>0.1157918932795745</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4272747054834263</v>
+        <v>0.5143982444778535</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.805956145938886</v>
+        <v>1.781073086454045</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.885443475896793</v>
+        <v>5.521288791552863</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.317183066723638</v>
+        <v>7.195037958854196</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.461719230823955</v>
+        <v>4.212964289275174</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.64453524575587</v>
+        <v>5.76597390424301</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.049063966117851</v>
+        <v>3.196412830994694</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.991524628662884</v>
+        <v>1.744216100770902</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.747276220171817</v>
+        <v>4.633250036510508</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.319375357418145</v>
+        <v>4.507912918620354</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.4336259429635486</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.7616904741128842</v>
+        <v>0.7616904741128836</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.817802967536037</v>
@@ -760,7 +760,7 @@
         <v>1.405304654513865</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7013881122897622</v>
+        <v>0.7013881122897617</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.03381812993470053</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6133584567474912</v>
+        <v>-0.6248258060039272</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1961631385824973</v>
+        <v>-0.1806920008612227</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1429901735165188</v>
+        <v>0.1215751668262914</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3474762476081736</v>
+        <v>-0.4479922788068823</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.08001872844667096</v>
+        <v>-0.06350546833067694</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3357542214887375</v>
+        <v>-0.290700867924422</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4301436803549096</v>
+        <v>-0.4310785453300053</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.01901844907625826</v>
+        <v>-0.01097314254915591</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.03157312445043434</v>
+        <v>0.06759514887034629</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4771973278508651</v>
+        <v>0.5024591715317377</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.582735630604811</v>
+        <v>1.419261565989611</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.023363515043539</v>
+        <v>1.831281056844553</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.597032964014478</v>
+        <v>5.275852981644428</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>6.799416708727513</v>
+        <v>6.624327109630836</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.433977206229907</v>
+        <v>3.97108895524904</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7358553590297442</v>
+        <v>0.6039796037788437</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.570631172200355</v>
+        <v>1.539617511447736</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.434784039044128</v>
+        <v>1.4641961382215</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>2.317505585922177</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.820298854777427</v>
+        <v>3.820298854777425</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.4331775024334819</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.333404299905339</v>
+        <v>-2.448216828270388</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.032899707213687</v>
+        <v>-0.7437187329983012</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7515120809930544</v>
+        <v>0.4843894533130003</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.024297477205906</v>
+        <v>-1.880019102387133</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.77682203895331</v>
+        <v>-2.007265968989786</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.184802964802549</v>
+        <v>-2.077720501627157</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.465893817662991</v>
+        <v>-1.319222703226838</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.4503686940169558</v>
+        <v>-0.3895241304991715</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3033623922419801</v>
+        <v>0.3249768871148625</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.670692465432734</v>
+        <v>3.53994992872667</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.679838761850593</v>
+        <v>5.927205952270675</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.851918017276951</v>
+        <v>6.69443878608011</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.174372831941712</v>
+        <v>2.947584213616984</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.421573198642321</v>
+        <v>3.392238436469663</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.95731379212242</v>
+        <v>1.909078116353862</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.633748070517056</v>
+        <v>2.782304042599944</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.895787533242613</v>
+        <v>3.778903457237212</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.07452856748362</v>
+        <v>4.179633344627104</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.4804816925896935</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.7920514500988847</v>
+        <v>0.7920514500988844</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1916129162409161</v>
@@ -983,7 +983,7 @@
         <v>0.433669989728854</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.6249319735703113</v>
+        <v>0.6249319735703112</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3971011370276864</v>
+        <v>-0.3972805360970043</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.202158455522644</v>
+        <v>-0.1483316919215797</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.07143365840087045</v>
+        <v>0.03468631238902754</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6477445420619433</v>
+        <v>-0.5972472419025686</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5941014842961556</v>
+        <v>-0.5981012714738966</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5753328290582822</v>
+        <v>-0.5750426856399916</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3390875981958802</v>
+        <v>-0.303558078495505</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1137268792770301</v>
+        <v>-0.1007229986515233</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.05730398245885824</v>
+        <v>0.08000744799384597</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.082788575000807</v>
+        <v>1.11180290908934</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.722838555239382</v>
+        <v>1.870941352670507</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.900746909307388</v>
+        <v>1.96330149719132</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.969910470109656</v>
+        <v>3.213892849815155</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.525158445734719</v>
+        <v>3.087392314019401</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.886470291116195</v>
+        <v>1.939577802184329</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.023613088106112</v>
+        <v>0.9939470559482029</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.627634025897422</v>
+        <v>1.522907390014483</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.705069558353569</v>
+        <v>1.650243248153788</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-2.161699006542136</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1.920724266865707</v>
+        <v>1.920724266865706</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>4.158371732300909</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.085126321602059</v>
+        <v>2.977572904826421</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.062105246838698</v>
+        <v>2.355036905615834</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.923507030720959</v>
+        <v>3.479479729221969</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.725512925169617</v>
+        <v>-7.622245778757278</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.683109962936276</v>
+        <v>-7.546554499891305</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.177844040295894</v>
+        <v>-3.509884408455835</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.539533479776631</v>
+        <v>1.6334095860542</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3490862105612501</v>
+        <v>0.2327353981351108</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.67856238677372</v>
+        <v>2.643913150481499</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.651106690914565</v>
+        <v>9.566463804518104</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.446578330365057</v>
+        <v>8.798702065778105</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.475941427994496</v>
+        <v>10.0184270588613</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.822542635147901</v>
+        <v>2.834018070976356</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.450396486205169</v>
+        <v>3.845357052514903</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.662230395658408</v>
+        <v>7.087160530588071</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.729210370258677</v>
+        <v>7.034092836077453</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.235433923293435</v>
+        <v>5.989348581612446</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.9083273462702</v>
+        <v>7.906973844202835</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.2673841241994025</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2375775602293205</v>
+        <v>0.2375775602293203</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.7196409924670211</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.4565264665786423</v>
+        <v>0.4643546930543682</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2907104193370882</v>
+        <v>0.3494608500923023</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.4574561041805705</v>
+        <v>0.5089524039814824</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6670259023016362</v>
+        <v>-0.6460706678524822</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7097177036646449</v>
+        <v>-0.720121239352673</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.365453641898553</v>
+        <v>-0.3303992430375083</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2103503772833688</v>
+        <v>0.1978528438780457</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.04452375971960809</v>
+        <v>0.0219252279409818</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3740965922314896</v>
+        <v>0.329963424810958</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.481852734247441</v>
+        <v>2.572657484649149</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.168339855448815</v>
+        <v>2.26029200971136</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.516952842328237</v>
+        <v>2.530373400974659</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5164794920960959</v>
+        <v>0.6404657480062718</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6883385681859807</v>
+        <v>0.8000985913191531</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.262685091561179</v>
+        <v>1.340360000774847</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.471587899749984</v>
+        <v>1.4986032886657</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.336182306723896</v>
+        <v>1.276244332695056</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.831831576241474</v>
+        <v>1.651610671920323</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>0.8634907328950461</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.631097926123992</v>
+        <v>2.631097926123989</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.9006367955762228</v>
+        <v>-0.8371955122097088</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.002966374807550273</v>
+        <v>-0.07098592890612758</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.866900746362743</v>
+        <v>1.848255699471014</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.195914018798397</v>
+        <v>-1.285867699018865</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.855551669503658</v>
+        <v>-2.886352281090625</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.69943704813236</v>
+        <v>-0.6973565252398967</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.5184693066505681</v>
+        <v>-0.4786788337114272</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.6668187278188157</v>
+        <v>-0.8916277691351007</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.100464944579091</v>
+        <v>0.9986278435904624</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.658108207001958</v>
+        <v>3.613969632351012</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.408943532988097</v>
+        <v>4.585284160882837</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.197350665763719</v>
+        <v>6.045813304105403</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.282646289730267</v>
+        <v>3.45468498851943</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.401229038727742</v>
+        <v>1.396255947998708</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.238334469395445</v>
+        <v>3.212441457855729</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.774021228689257</v>
+        <v>2.689756343455858</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.397926064552114</v>
+        <v>2.494544283869756</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.204285660903464</v>
+        <v>4.23923241027406</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.1333667266602225</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4063748510110614</v>
+        <v>0.406374851011061</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1089236879022639</v>
+        <v>-0.09656674574268614</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.005457078073012614</v>
+        <v>-0.005081106853222828</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2016035598656426</v>
+        <v>0.2126819846959107</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2100010474150748</v>
+        <v>-0.2315188794453917</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.486345129942756</v>
+        <v>-0.4812173690869319</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1209108495307777</v>
+        <v>-0.1200005032406217</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.07489275422268538</v>
+        <v>-0.06449472821220852</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.09516450848286323</v>
+        <v>-0.1223619646090342</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1343817585042776</v>
+        <v>0.1372032918913688</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5514267697308045</v>
+        <v>0.5514058161928199</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.673587989841636</v>
+        <v>0.7023840291084695</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9421250686197238</v>
+        <v>0.9296742987597645</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.021304417559705</v>
+        <v>1.022529029405213</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4209592001463122</v>
+        <v>0.4399637053484937</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9915148149855016</v>
+        <v>0.9500146975708252</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4795401928138949</v>
+        <v>0.4970028428551689</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4151047281751057</v>
+        <v>0.4403602903453748</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.743221657301678</v>
+        <v>0.7425343418324525</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>4.790835017786583</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2.165329319148736</v>
+        <v>2.165329319148734</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.337559583057147</v>
@@ -1520,7 +1520,7 @@
         <v>4.164074011201932</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>4.050795635977285</v>
+        <v>4.050795635977282</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.584193310595988</v>
+        <v>-2.625766703521556</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.329053592124914</v>
+        <v>0.6156232258892969</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.293600438420959</v>
+        <v>-1.304999970938716</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1258622337259575</v>
+        <v>0.2324388067697087</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.5119191476132162</v>
+        <v>0.4358720662252857</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.619352986136986</v>
+        <v>2.602546334138509</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.01937541968617174</v>
+        <v>-0.08987274812464272</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.065604371348721</v>
+        <v>1.775560164517836</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.688633570257773</v>
+        <v>1.905427173051224</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.345932008702656</v>
+        <v>4.295408592089141</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.376092763517258</v>
+        <v>7.913483572619024</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.582090165536281</v>
+        <v>5.217131647606911</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.18556969041928</v>
+        <v>6.266799710158431</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.66212624029353</v>
+        <v>6.798470420839488</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.615444421843702</v>
+        <v>7.828166839345628</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.556374885488991</v>
+        <v>4.525506339740364</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.398612080316495</v>
+        <v>6.49860726945988</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.011334095980198</v>
+        <v>6.185276678526335</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.7525716156612972</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.3401422462056348</v>
+        <v>0.3401422462056345</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.5414526198690635</v>
@@ -1625,7 +1625,7 @@
         <v>0.6672060301981667</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.6490555326715584</v>
+        <v>0.6490555326715579</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3276074773535773</v>
+        <v>-0.3258844220672797</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1476897116310233</v>
+        <v>0.05649631222318213</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1585279436358532</v>
+        <v>-0.1726855334521908</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.001530586830196022</v>
+        <v>0.01374845423848785</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.06037235206818869</v>
+        <v>0.05711589090950624</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3354862757766952</v>
+        <v>0.310800712119032</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.00361208182157208</v>
+        <v>-0.01290503333899983</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2778909152739651</v>
+        <v>0.2227447184619308</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2186832341661628</v>
+        <v>0.2376719046169788</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.011227140357317</v>
+        <v>1.011397984329142</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.917963375498358</v>
+        <v>1.716635208684962</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.375631117163173</v>
+        <v>1.191745134470029</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.286392973222582</v>
+        <v>1.292372666437529</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.427689316356838</v>
+        <v>1.478699436700067</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.68826198973004</v>
+        <v>1.686534417498939</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8880489699767443</v>
+        <v>0.9111016453896387</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.297554640978202</v>
+        <v>1.297543841323443</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.240244659775206</v>
+        <v>1.24366682956974</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>3.59640085969228</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.7080942891583619</v>
+        <v>0.7080942891583606</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>3.078782332795553</v>
@@ -1734,7 +1734,7 @@
         <v>2.955917371294367</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.4525449724978398</v>
+        <v>0.4525449724978356</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.7287643400929588</v>
+        <v>0.7279421054285071</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.3559051545721522</v>
+        <v>0.3907189945162777</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.2127702143688217</v>
+        <v>0.2231526879001121</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.9253090939567585</v>
+        <v>0.4984455497503352</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.9953309939032796</v>
+        <v>0.5621152480720838</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.64644415242969</v>
+        <v>-1.78327100727686</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.7770573811558446</v>
+        <v>0.7338752774061272</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.7928552800414345</v>
+        <v>0.790207646269192</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.323407782297653</v>
+        <v>-1.633871928518838</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.199840928085417</v>
+        <v>4.731050954932281</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.222119649302631</v>
+        <v>3.272747527411063</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.888872020012986</v>
+        <v>2.622889038794411</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6.112859478086377</v>
+        <v>6.009242224172016</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.463304343898672</v>
+        <v>6.393066572619037</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.095872116069938</v>
+        <v>3.094373311458245</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>5.411901911713877</v>
+        <v>5.492906766930385</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.252439782806908</v>
+        <v>5.460407983290898</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.605117831468816</v>
+        <v>2.282891072365127</v>
       </c>
     </row>
     <row r="37">
@@ -1836,7 +1836,7 @@
         <v>0.3364766496490785</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0662487868696699</v>
+        <v>0.06624878686966977</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.3568338902745755</v>
@@ -1845,7 +1845,7 @@
         <v>0.3425937208011152</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.05245040590900658</v>
+        <v>0.0524504059090061</v>
       </c>
     </row>
     <row r="38">
@@ -1859,22 +1859,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>0.07481382493275583</v>
+        <v>0.04124841895661681</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.07839109127641031</v>
+        <v>0.04371413204147088</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1371247570429811</v>
+        <v>-0.1434795553440988</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.07123278297698932</v>
+        <v>0.08349918226938652</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.08622568178065572</v>
+        <v>0.08726453460610727</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1428039573077948</v>
+        <v>-0.1689371679660248</v>
       </c>
     </row>
     <row r="39">
@@ -1888,22 +1888,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>0.6421702250921189</v>
+        <v>0.640113744866299</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.6690328355526347</v>
+        <v>0.6685210305791011</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3319440004142161</v>
+        <v>0.3283832489690049</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6944060782542159</v>
+        <v>0.7128654220635441</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.6952174520701511</v>
+        <v>0.7087416373050577</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.3313038900632685</v>
+        <v>0.2951476849190512</v>
       </c>
     </row>
     <row r="40">
@@ -1933,7 +1933,7 @@
         <v>1.598291035540721</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>1.139187259323918</v>
+        <v>1.139187259323921</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>1.86000322118776</v>
@@ -1953,31 +1953,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.5189768972388766</v>
+        <v>0.6759137183819576</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>1.800613611234989</v>
+        <v>1.933319786392457</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2.618404331838421</v>
+        <v>2.704160272778787</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.6075038663901501</v>
+        <v>0.6819646918496511</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>0.373667331668936</v>
+        <v>0.3732033414321851</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.007621216188656299</v>
+        <v>-0.03940586748570981</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.9366025073309865</v>
+        <v>0.9398684926515254</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>1.46037369573822</v>
+        <v>1.451335639149655</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.676570481139581</v>
+        <v>1.578870160800302</v>
       </c>
     </row>
     <row r="42">
@@ -1988,31 +1988,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.981175707085379</v>
+        <v>3.134901029055508</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.262567454232425</v>
+        <v>4.438181093097769</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.954473220401436</v>
+        <v>4.979024355517995</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.268848991934579</v>
+        <v>3.326410890180191</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.934267535269057</v>
+        <v>3.066762426219804</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.164055295887819</v>
+        <v>2.236269750179524</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.686312119778955</v>
+        <v>2.763891985086992</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.230395814361311</v>
+        <v>3.269339273708074</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>3.199818679773662</v>
+        <v>3.184560510463549</v>
       </c>
     </row>
     <row r="43">
@@ -2038,7 +2038,7 @@
         <v>0.2355182451070396</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.167866413686978</v>
+        <v>0.1678664136869785</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.2981774578436795</v>
@@ -2058,31 +2058,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.08230134633251761</v>
+        <v>0.107105367172445</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.2778465535871043</v>
+        <v>0.3112365577054167</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.4035095110018025</v>
+        <v>0.4256912064643597</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.08154307143128799</v>
+        <v>0.0926861005015666</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.04954507102002308</v>
+        <v>0.04799066409160641</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.001278140671732451</v>
+        <v>-0.004710549990850598</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1436826562935751</v>
+        <v>0.1354810142183477</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.2141636196926321</v>
+        <v>0.2195866124241596</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.2461516481625507</v>
+        <v>0.2370739764490576</v>
       </c>
     </row>
     <row r="45">
@@ -2093,31 +2093,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.5731990840440825</v>
+        <v>0.6025907716174319</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.8399548762640279</v>
+        <v>0.8415205788171425</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.9783724013530671</v>
+        <v>0.9715189384246954</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5421914425925896</v>
+        <v>0.5348301441078545</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.4726667446443397</v>
+        <v>0.4931233371894875</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3553992889902745</v>
+        <v>0.3683745184036104</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4627042403430277</v>
+        <v>0.4685790726976481</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.546909679387567</v>
+        <v>0.5692710606970772</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.5554061192867795</v>
+        <v>0.556185507378421</v>
       </c>
     </row>
     <row r="46">
